--- a/data/trans_camb/P6907S1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P6907S1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,68</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,87</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,36; -6,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,04; -6,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,23; 27,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,8; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,43; 28,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,87; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,67; -4,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,82; 5,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,97; 9,05</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,53%</t>
         </is>
       </c>
     </row>
@@ -801,37 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 341,56</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,75; 16,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; 4,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 23,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,39; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,44; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,31; 4,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; 10,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,31; 2,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,25; 12,46</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,13%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-48,63; 1384,67</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 482,1</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,89; 469,8</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,04; 7,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,04; -2,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,82; 10,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,59; -5,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,43; 5,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,92; 1,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,52; -0,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,38; -1,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,39; 3,72</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,79%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 129,76</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-93,76; -6,0</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-49,89; 133,63</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,11; 160,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,43; 50,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,58; -5,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,89; 44,71</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; 7,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; 0,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,34; 11,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; 5,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,06; -2,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; 21,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,97; 2,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,97; -1,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 13,22</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,47%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,64%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 267,71</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 42,69</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-77,01; 301,83</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,0; 762,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 91,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -21,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,24; 263,56</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,51</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,87; 5,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,61; 4,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,0; 7,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,72; 6,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,55; -4,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,84; 5,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,29; 2,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,98; -0,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; 4,07</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,19%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,59%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,04%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,1%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,65%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 163,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,95; 95,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,48; 142,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 118,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 3,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,9; 79,91</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,18; 45,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,84; -5,24</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,37; 56,08</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 1,67</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,23; -2,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 6,86</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; -2,73</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; -3,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,36; 3,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,22; -1,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,66; -4,11</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 3,07</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,41%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,5%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,02%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,4%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,64%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,06%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,98; 30,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,96; -27,42</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,42; 91,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,37; -20,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,99; -43,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,88; 46,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,33; -17,21</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,41; -46,05</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,05; 36,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6907S1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-20,19</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-20,19</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,06</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,06</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-18,43</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,68</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,87</t>
+          <t>0,73</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-47,36; -6,27</t>
+          <t>-10,4; 12,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-47,04; -6,27</t>
+          <t>-14,61; 0,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 27,72</t>
+          <t>-5,68; 19,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-56,8; 0,0</t>
+          <t>-18,44; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 28,09</t>
+          <t>-14,82; 5,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-56,87; 0,0</t>
+          <t>-15,5; 2,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,67; -4,54</t>
+          <t>-9,14; 8,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 5,66</t>
+          <t>-11,22; 0,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 9,05</t>
+          <t>-6,25; 9,07</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-5,31%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-74,39%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>49,07%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-23,88%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>-52,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-51,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-30,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-68,8%</t>
+          <t>-69,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-53,53%</t>
+          <t>9,13%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 254,13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 97,05</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-53,44; 377,63</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 206,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 124,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 341,56</t>
+          <t>-60,11; 198,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-11,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>-2,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 16,22</t>
+          <t>-14,04; 7,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 4,45</t>
+          <t>-16,04; -2,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 23,15</t>
+          <t>-7,92; 10,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 0,0</t>
+          <t>-24,59; -5,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 0,0</t>
+          <t>-16,43; 5,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 4,65</t>
+          <t>-17,92; 1,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 10,75</t>
+          <t>-14,52; -0,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 2,03</t>
+          <t>-13,38; -1,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 12,46</t>
+          <t>-8,28; 3,86</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>44,89%</t>
+          <t>-48,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-57,27%</t>
+          <t>-72,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>100,3%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -974,27 +974,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-48,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,16%</t>
+          <t>-53,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>-70,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-68,07%</t>
+          <t>-63,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,13%</t>
+          <t>-20,35%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 129,76</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-93,76; -6,0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-50,4; 130,47</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-48,63; 1384,67</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,11; 160,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,87; 54,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 482,1</t>
+          <t>-100,0; 0,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,58; -5,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,89; 469,8</t>
+          <t>-54,76; 49,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,72</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,57</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,89</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,31</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>3,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 7,06</t>
+          <t>-10,2; 7,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -2,26</t>
+          <t>-12,55; 0,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 10,12</t>
+          <t>-7,22; 11,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,59; -5,28</t>
+          <t>-14,59; 5,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 5,01</t>
+          <t>-19,06; -2,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 1,54</t>
+          <t>-10,93; 16,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -0,99</t>
+          <t>-9,97; 2,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,38; -1,53</t>
+          <t>-11,97; -1,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 3,72</t>
+          <t>-5,0; 11,33</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-48,45%</t>
+          <t>-39,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-72,56%</t>
+          <t>-63,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-61,29%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-48,17%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-53,99%</t>
+          <t>52,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-70,24%</t>
+          <t>-48,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-63,61%</t>
+          <t>-77,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-21,79%</t>
+          <t>42,84%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 129,76</t>
+          <t>-100,0; 267,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,76; -6,0</t>
+          <t>-100,0; 42,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 133,63</t>
+          <t>-76,87; 317,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,34 +1243,34 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-90,11; 160,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,43; 50,36</t>
+          <t>-66,33; 484,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,43</t>
+          <t>-100,0; 91,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-85,58; -5,85</t>
+          <t>-100,0; -21,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 44,71</t>
+          <t>-48,79; 212,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,25</t>
+          <t>-11,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,03</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>-1,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 7,61</t>
+          <t>-9,87; 5,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 0,33</t>
+          <t>-8,61; 4,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 11,32</t>
+          <t>-6,98; 7,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 5,86</t>
+          <t>-15,72; 6,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,06; -2,15</t>
+          <t>-20,55; -4,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 21,25</t>
+          <t>-12,52; 5,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 2,95</t>
+          <t>-10,29; 2,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; -1,83</t>
+          <t>-10,98; -0,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 13,22</t>
+          <t>-6,86; 4,2</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-39,21%</t>
+          <t>-63,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-63,27%</t>
+          <t>-32,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-61,29%</t>
+          <t>-46,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-87,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>-29,57%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-48,53%</t>
+          <t>-52,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-77,47%</t>
+          <t>-62,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>66,64%</t>
+          <t>-12,7%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 267,71</t>
+          <t>-100,0; 163,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 42,69</t>
+          <t>-83,95; 95,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,01; 301,83</t>
+          <t>-67,82; 145,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 118,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 3,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,0; 762,87</t>
+          <t>-67,88; 81,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 91,49</t>
+          <t>-87,18; 45,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -21,71</t>
+          <t>-85,84; -5,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 263,56</t>
+          <t>-52,79; 59,15</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-11,51</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 5,83</t>
+          <t>-8,19; 1,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 4,09</t>
+          <t>-9,23; -2,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 7,43</t>
+          <t>-2,73; 7,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 6,78</t>
+          <t>-12,88; -2,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-20,55; -4,23</t>
+          <t>-13,14; -3,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 5,32</t>
+          <t>-7,54; 3,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 2,78</t>
+          <t>-8,22; -1,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -0,71</t>
+          <t>-9,66; -4,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,07</t>
+          <t>-4,06; 2,94</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-63,89%</t>
+          <t>-40,41%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-32,19%</t>
+          <t>-62,15%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-46,59%</t>
+          <t>-73,5%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-87,42%</t>
+          <t>-77,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-31,04%</t>
+          <t>-24,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-52,55%</t>
+          <t>-54,64%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-62,1%</t>
+          <t>-68,06%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-13,65%</t>
+          <t>-2,45%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 163,1</t>
+          <t>-74,98; 30,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-83,95; 95,87</t>
+          <t>-81,96; -27,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,48; 142,2</t>
+          <t>-25,81; 96,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 118,22</t>
+          <t>-93,37; -20,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3,47</t>
+          <t>-92,99; -43,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-68,9; 79,91</t>
+          <t>-55,74; 43,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-87,18; 45,65</t>
+          <t>-76,33; -17,21</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-85,84; -5,24</t>
+          <t>-81,41; -46,05</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,37; 56,08</t>
+          <t>-35,53; 35,68</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-3,72</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-5,73</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-7,89</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-8,27</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-5,3</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-6,6</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 1,67</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-9,23; -2,09</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; 6,86</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-12,88; -2,73</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-13,14; -3,94</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-7,36; 3,24</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-8,22; -1,61</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-9,66; -4,11</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 3,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-40,41%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-62,15%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>16,81%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-73,5%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-77,02%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-20,4%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-54,64%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-68,06%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-0,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-74,98; 30,74</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-81,96; -27,42</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-26,42; 91,92</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-93,37; -20,83</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-92,99; -43,82</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-51,88; 46,71</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-76,33; -17,21</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-81,41; -46,05</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-33,05; 36,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P6907S1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 12,09</t>
+          <t>-10,49; 12,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 0,5</t>
+          <t>-15,16; 0,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 19,31</t>
+          <t>-5,24; 19,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 0,0</t>
+          <t>-17,88; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 5,34</t>
+          <t>-13,73; 5,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 2,73</t>
+          <t>-14,08; 3,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 8,14</t>
+          <t>-9,13; 7,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 0,67</t>
+          <t>-11,04; 0,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 9,07</t>
+          <t>-6,07; 8,48</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 254,13</t>
+          <t>-100,0; 326,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 97,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,44; 377,63</t>
+          <t>-50,06; 433,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 206,28</t>
+          <t>-85,49; 180,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 124,12</t>
+          <t>-100,0; 68,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-60,11; 198,7</t>
+          <t>-59,58; 182,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 7,06</t>
+          <t>-14,29; 7,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -2,26</t>
+          <t>-15,86; -2,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 10,04</t>
+          <t>-7,98; 9,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,59; -5,28</t>
+          <t>-22,6; -4,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 5,01</t>
+          <t>-16,67; 5,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 1,63</t>
+          <t>-17,93; 2,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -0,99</t>
+          <t>-14,25; -0,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,38; -1,53</t>
+          <t>-13,67; -1,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 3,86</t>
+          <t>-8,82; 3,43</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 129,76</t>
+          <t>-100,0; 119,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-93,76; -6,0</t>
+          <t>-100,0; -11,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,4; 130,47</t>
+          <t>-49,68; 127,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,27 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-90,11; 160,4</t>
+          <t>-100,0; 110,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,87; 54,4</t>
+          <t>-86,21; 55,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,43</t>
+          <t>-100,0; 14,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,58; -5,85</t>
+          <t>-86,81; -0,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,76; 49,45</t>
+          <t>-58,44; 47,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 7,61</t>
+          <t>-10,38; 6,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 0,33</t>
+          <t>-12,07; 1,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 11,51</t>
+          <t>-8,03; 11,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 5,86</t>
+          <t>-14,86; 4,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,06; -2,15</t>
+          <t>-19,33; -2,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 16,71</t>
+          <t>-11,08; 15,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 2,95</t>
+          <t>-10,0; 3,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,97; -1,83</t>
+          <t>-12,12; -1,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 11,33</t>
+          <t>-4,61; 12,35</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 267,71</t>
+          <t>-100,0; 309,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 42,69</t>
+          <t>-96,7; 106,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-76,87; 317,94</t>
+          <t>-87,5; 284,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,33; 484,33</t>
+          <t>-64,03; 384,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 91,49</t>
+          <t>-100,0; 94,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -21,71</t>
+          <t>-95,55; -18,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 212,39</t>
+          <t>-43,03; 239,91</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 5,83</t>
+          <t>-10,39; 4,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 4,09</t>
+          <t>-8,15; 3,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 7,5</t>
+          <t>-6,33; 7,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 6,78</t>
+          <t>-15,8; 8,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,55; -4,23</t>
+          <t>-19,2; -4,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 5,62</t>
+          <t>-12,72; 5,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 2,78</t>
+          <t>-11,02; 2,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -0,71</t>
+          <t>-11,1; -0,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,2</t>
+          <t>-6,48; 3,98</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 163,1</t>
+          <t>-100,0; 123,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-83,95; 95,87</t>
+          <t>-81,53; 70,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,82; 145,86</t>
+          <t>-63,84; 136,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 118,22</t>
+          <t>-100,0; 139,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3,47</t>
+          <t>-100,0; -5,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,88; 81,9</t>
+          <t>-68,34; 87,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-87,18; 45,65</t>
+          <t>-87,67; 56,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-85,84; -5,24</t>
+          <t>-85,77; -4,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,79; 59,15</t>
+          <t>-51,12; 58,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 1,67</t>
+          <t>-7,97; 1,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -2,09</t>
+          <t>-9,31; -2,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 7,0</t>
+          <t>-2,38; 7,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -2,73</t>
+          <t>-12,91; -2,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -3,94</t>
+          <t>-13,12; -3,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 3,21</t>
+          <t>-7,51; 2,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -1,61</t>
+          <t>-8,94; -1,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -4,11</t>
+          <t>-9,37; -4,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,94</t>
+          <t>-3,78; 3,34</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,98; 30,74</t>
+          <t>-74,55; 20,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-81,96; -27,42</t>
+          <t>-80,42; -29,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 96,96</t>
+          <t>-22,32; 106,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-93,37; -20,83</t>
+          <t>-92,52; -9,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-92,99; -43,82</t>
+          <t>-93,29; -43,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,74; 43,78</t>
+          <t>-54,82; 35,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-76,33; -17,21</t>
+          <t>-78,78; -15,37</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-81,41; -46,05</t>
+          <t>-81,76; -47,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 35,68</t>
+          <t>-33,17; 39,87</t>
         </is>
       </c>
     </row>
